--- a/testSet/caselist/login.xlsx
+++ b/testSet/caselist/login.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -390,7 +390,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -417,10 +417,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>18819490400</v>
+        <v>18819490408</v>
       </c>
       <c r="B2">
-        <v>321321322</v>
+        <v>321321329</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -434,7 +434,7 @@
         <v>18819490408</v>
       </c>
       <c r="B3">
-        <v>321321321</v>
+        <v>321321320</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
